--- a/Excel/Esqueletos Excel/esqueletoProveedores.xlsx
+++ b/Excel/Esqueletos Excel/esqueletoProveedores.xlsx
@@ -25,7 +25,7 @@
     <t>TELEFONO(CADENA DE CARACTERES)</t>
   </si>
   <si>
-    <t>nombre de ejemplo</t>
+    <t>nombre de ejemplo xlsx</t>
   </si>
   <si>
     <t>155921925 -  159281251- fijo</t>
@@ -125,13 +125,13 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.9411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.2980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.1137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -173,7 +173,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -198,7 +198,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
